--- a/inst/extdata/Regional GDP w YoY.xlsx
+++ b/inst/extdata/Regional GDP w YoY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75936F38-B965-4F39-8524-6D2568C67E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664877D6-BAE3-4DAF-8DF9-C35F5578FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Anhui_GDP_YoY_YTD" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -945,13 +945,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="63" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:63">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:63">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:63">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:63">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:63">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:63">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
         <v>19359</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>24.53</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
         <v>19724</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>27.24</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
         <v>20089</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
         <v>20454</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>30.53</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
         <v>20820</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>33.54</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
         <v>21185</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>37.270000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
         <v>21550</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
         <v>21915</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>47.35</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
         <v>22281</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
         <v>22646</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>40.56</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
         <v>23011</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>43.35</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
         <v>23376</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
         <v>23742</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
         <v>24107</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>55.67</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
         <v>24472</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>58.28</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
         <v>24837</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>56.35</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
         <v>25203</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
         <v>25568</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
         <v>25933</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>69.17</v>
       </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
         <v>26298</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>70.430000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
         <v>26664</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>84.39</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
         <v>27029</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>86.99</v>
       </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
         <v>27394</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>86.57</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:63">
       <c r="A31" s="1">
         <v>27759</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>84.23</v>
       </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:63">
       <c r="A32" s="1">
         <v>28125</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>87.27</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:63">
       <c r="A33" s="1">
         <v>28490</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:63">
       <c r="A34" s="1">
         <v>28855</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>123.72</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:63">
       <c r="A35" s="1">
         <v>29220</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>157.75</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:63">
       <c r="A36" s="1">
         <v>29586</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>179.92</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:63">
       <c r="A37" s="1">
         <v>29951</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>204.86</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:63">
       <c r="A38" s="1">
         <v>30316</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>234.01</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:63">
       <c r="A39" s="1">
         <v>30681</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>257.08999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:63">
       <c r="A40" s="1">
         <v>31047</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>323.25</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:63">
       <c r="A41" s="1">
         <v>31412</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>429.16</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:63">
       <c r="A42" s="1">
         <v>31777</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>502.47</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:63">
       <c r="A43" s="1">
         <v>32142</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>606.99</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:63">
       <c r="A44" s="1">
         <v>32508</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>770.25</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:63">
       <c r="A45" s="1">
         <v>32873</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>849.44</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:63">
       <c r="A46" s="1">
         <v>33238</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>904.69</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:63">
       <c r="A47" s="1">
         <v>33603</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>1089.33</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:63">
       <c r="A48" s="1">
         <v>33969</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>1375.7</v>
       </c>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:63">
       <c r="A49" s="1">
         <v>34334</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1925.91</v>
       </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:63">
       <c r="A50" s="1">
         <v>34699</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>2689.28</v>
       </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:63">
       <c r="A51" s="1">
         <v>35064</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>3557.55</v>
       </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:63">
       <c r="A52" s="1">
         <v>35430</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>4188.53</v>
       </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:63">
       <c r="A53" s="1">
         <v>35795</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>4686.1099999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:63">
       <c r="A54" s="1">
         <v>35885</v>
       </c>
@@ -6533,7 +6533,7 @@
       <c r="BJ54" s="3"/>
       <c r="BK54" s="3"/>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:63">
       <c r="A55" s="1">
         <v>35976</v>
       </c>
@@ -6604,7 +6604,7 @@
       <c r="BJ55" s="3"/>
       <c r="BK55" s="3"/>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:63">
       <c r="A56" s="1">
         <v>36068</v>
       </c>
@@ -6679,7 +6679,7 @@
       <c r="BJ56" s="3"/>
       <c r="BK56" s="3"/>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:63">
       <c r="A57" s="1">
         <v>36160</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>5052.62</v>
       </c>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:63">
       <c r="A58" s="1">
         <v>36250</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="BJ58" s="3"/>
       <c r="BK58" s="3"/>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:63">
       <c r="A59" s="1">
         <v>36341</v>
       </c>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="BK59" s="3"/>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:63">
       <c r="A60" s="1">
         <v>36433</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="BJ60" s="3"/>
       <c r="BK60" s="3"/>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:63">
       <c r="A61" s="1">
         <v>36525</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>5443.92</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:63">
       <c r="A62" s="1">
         <v>36616</v>
       </c>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="BK62" s="3"/>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:63">
       <c r="A63" s="1">
         <v>36707</v>
       </c>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="BK63" s="3"/>
     </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:63">
       <c r="A64" s="1">
         <v>36799</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:63">
       <c r="A65" s="1">
         <v>36891</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>6141.03</v>
       </c>
     </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:63">
       <c r="A66" s="1">
         <v>36981</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:63">
       <c r="A67" s="1">
         <v>37072</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:63">
       <c r="A68" s="1">
         <v>37164</v>
       </c>
@@ -8501,7 +8501,7 @@
       <c r="BJ68" s="3"/>
       <c r="BK68" s="3"/>
     </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:63">
       <c r="A69" s="1">
         <v>37256</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>6898.34</v>
       </c>
     </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:63">
       <c r="A70" s="1">
         <v>37346</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="BJ70" s="3"/>
       <c r="BK70" s="3"/>
     </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:63">
       <c r="A71" s="1">
         <v>37437</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="BJ71" s="3"/>
       <c r="BK71" s="3"/>
     </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:63">
       <c r="A72" s="1">
         <v>37529</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="BJ72" s="3"/>
       <c r="BK72" s="3"/>
     </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:63">
       <c r="A73" s="1">
         <v>37621</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>8003.67</v>
       </c>
     </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:63">
       <c r="A74" s="1">
         <v>37711</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:63">
       <c r="A75" s="1">
         <v>37802</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:63">
       <c r="A76" s="1">
         <v>37894</v>
       </c>
@@ -9671,7 +9671,7 @@
       <c r="BJ76" s="3"/>
       <c r="BK76" s="3"/>
     </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:63">
       <c r="A77" s="1">
         <v>37986</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>9705.02</v>
       </c>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:63">
       <c r="A78" s="1">
         <v>38077</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:63">
       <c r="A79" s="1">
         <v>38168</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:63">
       <c r="A80" s="1">
         <v>38260</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>7870</v>
       </c>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:63">
       <c r="A81" s="1">
         <v>38352</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>11648.7</v>
       </c>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:63">
       <c r="A82" s="1">
         <v>38442</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>2746.09</v>
       </c>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:63">
       <c r="A83" s="1">
         <v>38533</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>6094</v>
       </c>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:63">
       <c r="A84" s="1">
         <v>38625</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>9016</v>
       </c>
     </row>
-    <row r="85" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:63">
       <c r="A85" s="1">
         <v>38717</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>13417.68</v>
       </c>
     </row>
-    <row r="86" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:63">
       <c r="A86" s="1">
         <v>38807</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>3319.38</v>
       </c>
     </row>
-    <row r="87" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:63">
       <c r="A87" s="1">
         <v>38898</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>7123.39</v>
       </c>
     </row>
-    <row r="88" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:63">
       <c r="A88" s="1">
         <v>38990</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>10997</v>
       </c>
     </row>
-    <row r="89" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:63">
       <c r="A89" s="1">
         <v>39082</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>15718.47</v>
       </c>
     </row>
-    <row r="90" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:63">
       <c r="A90" s="1">
         <v>39172</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="91" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:63">
       <c r="A91" s="1">
         <v>39263</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>8344</v>
       </c>
     </row>
-    <row r="92" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:63">
       <c r="A92" s="1">
         <v>39355</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>12984</v>
       </c>
     </row>
-    <row r="93" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:63">
       <c r="A93" s="1">
         <v>39447</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>18753.73</v>
       </c>
     </row>
-    <row r="94" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:63">
       <c r="A94" s="1">
         <v>39538</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>4601.97</v>
       </c>
     </row>
-    <row r="95" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:63">
       <c r="A95" s="1">
         <v>39629</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>9888.75</v>
       </c>
     </row>
-    <row r="96" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:63">
       <c r="A96" s="1">
         <v>39721</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>15301.9</v>
       </c>
     </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:63">
       <c r="A97" s="1">
         <v>39813</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>21462.691299999999</v>
       </c>
     </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:63">
       <c r="A98" s="1">
         <v>39903</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>4632.1000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:63">
       <c r="A99" s="1">
         <v>39994</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>10043.5</v>
       </c>
     </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:63">
       <c r="A100" s="1">
         <v>40086</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>15828.1</v>
       </c>
     </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:63">
       <c r="A101" s="1">
         <v>40178</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>22990.353299999999</v>
       </c>
     </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:63">
       <c r="A102" s="1">
         <v>40268</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>5363.3</v>
       </c>
     </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:63">
       <c r="A103" s="1">
         <v>40359</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>11761.51</v>
       </c>
     </row>
-    <row r="104" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:63">
       <c r="A104" s="1">
         <v>40451</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>18765.14</v>
       </c>
     </row>
-    <row r="105" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:63">
       <c r="A105" s="1">
         <v>40543</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>27722.31</v>
       </c>
     </row>
-    <row r="106" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:63">
       <c r="A106" s="1">
         <v>40633</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>6311.24</v>
       </c>
     </row>
-    <row r="107" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:63">
       <c r="A107" s="1">
         <v>40724</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>14653.6</v>
       </c>
     </row>
-    <row r="108" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:63">
       <c r="A108" s="1">
         <v>40816</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>22627.4</v>
       </c>
     </row>
-    <row r="109" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:63">
       <c r="A109" s="1">
         <v>40908</v>
       </c>
@@ -15872,7 +15872,7 @@
         <v>32318.85</v>
       </c>
     </row>
-    <row r="110" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:63">
       <c r="A110" s="1">
         <v>40999</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>6724.6</v>
       </c>
     </row>
-    <row r="111" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:63">
       <c r="A111" s="1">
         <v>41090</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>15790.4</v>
       </c>
     </row>
-    <row r="112" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:63">
       <c r="A112" s="1">
         <v>41182</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>24214.799999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:63">
       <c r="A113" s="1">
         <v>41274</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>34665.33</v>
       </c>
     </row>
-    <row r="114" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:63">
       <c r="A114" s="1">
         <v>41364</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>7261.5</v>
       </c>
     </row>
-    <row r="115" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:63">
       <c r="A115" s="1">
         <v>41455</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>16953.900000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:63">
       <c r="A116" s="1">
         <v>41547</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>26195.03</v>
       </c>
     </row>
-    <row r="117" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:63">
       <c r="A117" s="1">
         <v>41639</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>37756.58</v>
       </c>
     </row>
-    <row r="118" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:63">
       <c r="A118" s="1">
         <v>41729</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>7768.46</v>
       </c>
     </row>
-    <row r="119" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:63">
       <c r="A119" s="1">
         <v>41820</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>17978.21</v>
       </c>
     </row>
-    <row r="120" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:63">
       <c r="A120" s="1">
         <v>41912</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>27822.19</v>
       </c>
     </row>
-    <row r="121" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:63">
       <c r="A121" s="1">
         <v>42004</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>40173.03</v>
       </c>
     </row>
-    <row r="122" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:63">
       <c r="A122" s="1">
         <v>42094</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>8342.3799999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:63">
       <c r="A123" s="1">
         <v>42185</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>19280.689999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:63">
       <c r="A124" s="1">
         <v>42277</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>29684.23</v>
       </c>
     </row>
-    <row r="125" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:63">
       <c r="A125" s="1">
         <v>42369</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>42886.49</v>
       </c>
     </row>
-    <row r="126" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:63">
       <c r="A126" s="1">
         <v>42460</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>9356.2000000000007</v>
       </c>
     </row>
-    <row r="127" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:63">
       <c r="A127" s="1">
         <v>42551</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>20762.330000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:63">
       <c r="A128" s="1">
         <v>42643</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>32234.33</v>
       </c>
     </row>
-    <row r="129" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:63">
       <c r="A129" s="1">
         <v>42735</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>47251.360000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:63">
       <c r="A130" s="1">
         <v>42825</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>10551.93</v>
       </c>
     </row>
-    <row r="131" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:63">
       <c r="A131" s="1">
         <v>42916</v>
       </c>
@@ -20074,7 +20074,7 @@
         <v>23383.21</v>
       </c>
     </row>
-    <row r="132" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:63">
       <c r="A132" s="1">
         <v>43008</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>36958.03</v>
       </c>
     </row>
-    <row r="133" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:63">
       <c r="A133" s="1">
         <v>43100</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>51768.26</v>
       </c>
     </row>
-    <row r="134" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:63">
       <c r="A134" s="1">
         <v>43190</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>12501</v>
       </c>
     </row>
-    <row r="135" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:63">
       <c r="A135" s="1">
         <v>43281</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>26526</v>
       </c>
     </row>
-    <row r="136" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:63">
       <c r="A136" s="1">
         <v>43373</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="137" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:63">
       <c r="A137" s="1">
         <v>43465</v>
       </c>
@@ -21220,7 +21220,7 @@
         <v>58003</v>
       </c>
     </row>
-    <row r="138" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:63">
       <c r="A138" s="1">
         <v>43555</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>13721.95</v>
       </c>
     </row>
-    <row r="139" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:63">
       <c r="A139" s="1">
         <v>43646</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>28986.29</v>
       </c>
     </row>
-    <row r="140" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:63">
       <c r="A140" s="1">
         <v>43738</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>44856.91</v>
       </c>
     </row>
-    <row r="141" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:63">
       <c r="A141" s="1">
         <v>43830</v>
       </c>
@@ -21984,7 +21984,7 @@
         <v>62351.74</v>
       </c>
     </row>
-    <row r="142" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:63">
       <c r="A142" s="1">
         <v>43921</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>13114</v>
       </c>
     </row>
-    <row r="143" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:63">
       <c r="A143" s="1">
         <v>44012</v>
       </c>
@@ -22366,7 +22366,7 @@
         <v>29086.63</v>
       </c>
     </row>
-    <row r="144" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:63">
       <c r="A144" s="1">
         <v>44104</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>45825.919999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:63">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -22748,7 +22748,7 @@
         <v>64613.34</v>
       </c>
     </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:63">
       <c r="A146" s="1">
         <v>44286</v>
       </c>
@@ -22939,7 +22939,7 @@
         <v>16346.76</v>
       </c>
     </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:63">
       <c r="A147" s="1">
         <v>44377</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>34556</v>
       </c>
     </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:63">
       <c r="A148" s="1">
         <v>44469</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>52853</v>
       </c>
     </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:63">
       <c r="A149" s="1">
         <v>44561</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>73515.759999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:63">
       <c r="A150" s="1">
         <v>44651</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>17886</v>
       </c>
     </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:63">
       <c r="A151" s="1">
         <v>44742</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>36222</v>
       </c>
     </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:63">
       <c r="A152" s="1">
         <v>44834</v>
       </c>
@@ -24085,7 +24085,7 @@
         <v>55750</v>
       </c>
     </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:63">
       <c r="A153" s="1">
         <v>44926</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>77715</v>
       </c>
     </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:63">
       <c r="A154" s="1">
         <v>45016</v>
       </c>
@@ -24467,7 +24467,7 @@
         <v>18924.7</v>
       </c>
     </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:63">
       <c r="A155" s="1">
         <v>45107</v>
       </c>
@@ -24658,7 +24658,7 @@
         <v>38717</v>
       </c>
     </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:63">
       <c r="A156" s="1">
         <v>45199</v>
       </c>
@@ -24849,7 +24849,7 @@
         <v>59181.83</v>
       </c>
     </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:63">
       <c r="A157" s="1">
         <v>45291</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>82553</v>
       </c>
     </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:63">
       <c r="A158" s="1">
         <v>45382</v>
       </c>
@@ -25231,7 +25231,7 @@
         <v>20137</v>
       </c>
     </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:63">
       <c r="A159" s="1">
         <v>45473</v>
       </c>
@@ -25422,7 +25422,7 @@
         <v>40920</v>
       </c>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:63">
       <c r="A160" s="1">
         <v>45565</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>62618</v>
       </c>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:63">
       <c r="A161" s="1">
         <v>45657</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>90100</v>
       </c>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:63" ht="15">
       <c r="A163" s="4" t="s">
         <v>177</v>
       </c>
